--- a/D-specs.xlsx
+++ b/D-specs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collet/Documents/Enseignement/17-18/SI3/PS5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab\Documents\Polytech\SI3\ps5\dojo-poker-2021-poker-2021-d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66C608C-C33C-4B66-940B-B9552AE47EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09039D45-B5A8-49BC-B998-4C633A63AE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="4380" windowWidth="25020" windowHeight="20680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Définition</t>
   </si>
@@ -111,18 +111,9 @@
     <t>Ajout d'une 4 carte par main et détection du carré</t>
   </si>
   <si>
-    <t>Ajout d'une 4 carte par main et détection d'une double pair</t>
-  </si>
-  <si>
-    <t>Ajout d'une 5 carte par main et détection du flush</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
-    <t>Ajout d'une 5 carte par main et détection du quinte flush</t>
-  </si>
-  <si>
     <t>Jeu fonctionnel</t>
   </si>
   <si>
@@ -130,13 +121,43 @@
   </si>
   <si>
     <t>Avancement des releases</t>
+  </si>
+  <si>
+    <t>CHOUHABI Mohammed Amine</t>
+  </si>
+  <si>
+    <t>CLODONG Yann</t>
+  </si>
+  <si>
+    <t>CHOUHABI Mohammed Amine, CLODONG Yann, COGNE Gabriel, D'ANDREA William</t>
+  </si>
+  <si>
+    <t>D'ANDREA William</t>
+  </si>
+  <si>
+    <t>Ajout d'une 5° carte par main et détection full</t>
+  </si>
+  <si>
+    <t>Détection d'une double pair</t>
+  </si>
+  <si>
+    <t>Détection du flush</t>
+  </si>
+  <si>
+    <t>Détection du quinte flush</t>
+  </si>
+  <si>
+    <t>Détection de couleur</t>
+  </si>
+  <si>
+    <t>COGNE Gabriel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,17 +634,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="60.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
     <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
@@ -632,7 +653,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -648,7 +669,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -677,16 +698,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="47.25">
+    <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
-        <f>ROW(A3)-2</f>
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -707,16 +728,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A6" si="0">ROW(A4)-2</f>
+        <f>$A3 +1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -737,16 +758,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A11" si="0">$A4 +1</f>
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -765,7 +786,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -774,7 +795,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>18</v>
@@ -793,12 +814,13 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -816,70 +838,95 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1">
-      <c r="B12" s="7">
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
-        <f>COUNTIFS($E$3:$E$6,B12,$I$3:$I$6,"=OK")/COUNTIF($E$3:$E$6,B12)</f>
+      <c r="C14" s="8">
+        <f>COUNTIFS($E$3:$E$6,B14,$I$3:$I$6,"=OK")/COUNTIF($E$3:$E$6,B14)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1">
-      <c r="B13" s="7">
-        <f>B12+1</f>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="7">
+        <f>B14+1</f>
         <v>2</v>
       </c>
-      <c r="C13" s="8">
-        <f>COUNTIFS($E$3:$E$6,B13,$I$3:$I$6,"=OK")/COUNTIF($E$3:$E$6,B13)</f>
+      <c r="C15" s="8">
+        <f>COUNTIFS($E$3:$E$6,B15,$I$3:$I$6,"=OK")/COUNTIF($E$3:$E$6,B15)</f>
         <v>0</v>
       </c>
     </row>
@@ -898,7 +945,7 @@
       <formula>NOT(ISERROR(SEARCH("NOK",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:G1048576 A1:G1 A2:F3 B4:F4 A7:A9 C8:G9 E5:F6 C5:C7 E7:G7">
+  <conditionalFormatting sqref="A12:G1048576 A1:G1 A2:F3 B4:F4 C10:G11 E5:F6 E7:G9 C5:C9">
     <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -923,12 +970,12 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
+  <conditionalFormatting sqref="A4:A11">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -982,7 +1029,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C12:C13</xm:sqref>
+          <xm:sqref>C14:C15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/D-specs.xlsx
+++ b/D-specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab\Documents\Polytech\SI3\ps5\dojo-poker-2021-poker-2021-d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09039D45-B5A8-49BC-B998-4C633A63AE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B99BF7-7A9B-4758-9D9E-10DD59DADE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -870,7 +870,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>

--- a/D-specs.xlsx
+++ b/D-specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab\Documents\Polytech\SI3\ps5\dojo-poker-2021-poker-2021-d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B99BF7-7A9B-4758-9D9E-10DD59DADE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2FF4A-5975-41DA-8D6C-2B20F543C2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Définition</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Mise en place d'un programme qui comparera 1 cartes par joueur en comparant juste la hauteur et retourne la carte la plus haute (joueur gagnant)</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Initialisation et comparaison fonctionelle</t>
   </si>
   <si>
@@ -151,13 +148,16 @@
   </si>
   <si>
     <t>COGNE Gabriel</t>
+  </si>
+  <si>
+    <t>Interdiction duplication de cartes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +200,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -249,7 +255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,10 +275,15 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -283,7 +294,24 @@
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -634,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -654,20 +682,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -707,25 +735,25 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -734,83 +762,85 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A11" si="0">$A4 +1</f>
+        <f t="shared" ref="A5:A12" si="0">$A4 +1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -819,114 +849,166 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <f>COUNTIFS($E$3:$E$6,B14,$I$3:$I$6,"=OK")/COUNTIF($E$3:$E$6,B14)</f>
-        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="7">
-        <f>B14+1</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <f>COUNTIFS($E$3:$E$7,B15,$I$3:$I$7,"=OK")/COUNTIF($E$3:$E$7,B15)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="7">
+        <f>B15+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="8">
-        <f>COUNTIFS($E$3:$E$6,B15,$I$3:$I$6,"=OK")/COUNTIF($E$3:$E$6,B15)</f>
+      <c r="C16" s="8">
+        <f>COUNTIFS($E$3:$E$7,B16,$I$3:$I$7,"=OK")/COUNTIF($E$3:$E$7,B16)</f>
         <v>0</v>
       </c>
     </row>
@@ -935,48 +1017,48 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="PF">
-      <formula>NOT(ISERROR(SEARCH("PF",F6)))</formula>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="PF">
+      <formula>NOT(ISERROR(SEARCH("PF",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="NOK">
+  <conditionalFormatting sqref="I3 I7">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G1048576 A1:G1 A2:F3 B4:F4 C10:G11 E5:F6 E7:G9 C5:C9">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+  <conditionalFormatting sqref="A13:G1048576 A1:G1 A2:F3 E6:F7 C6:C10 B4:F5 E8:G10 C11:G12">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J1 G2:I3 H7:J1048576 G6:I6">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+  <conditionalFormatting sqref="H1:J1 G2:I3 H8:J1048576 G7:I7">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="PF">
+  <conditionalFormatting sqref="F4:F6">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="NOK">
+  <conditionalFormatting sqref="I4 I6">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:I5">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+  <conditionalFormatting sqref="G4:I4 G6:I6 G5:H5">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A11">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:A12">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="C15:C16">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -988,7 +1070,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1001,8 +1083,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",I5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1029,7 +1121,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C14:C15</xm:sqref>
+          <xm:sqref>C15:C16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/D-specs.xlsx
+++ b/D-specs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab\Documents\Polytech\SI3\ps5\dojo-poker-2021-poker-2021-d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2FF4A-5975-41DA-8D6C-2B20F543C2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855C258-C290-4367-A53D-EDFA7D041D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Définition</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Interdiction duplication de cartes</t>
+  </si>
+  <si>
+    <t>CHOUHABI Mohammed Amine CLODONG Yann</t>
   </si>
 </sst>
 </file>
@@ -275,15 +278,15 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -665,7 +668,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -682,20 +685,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -797,7 +800,7 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1">
@@ -821,13 +824,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1">
@@ -849,13 +852,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1">
@@ -877,11 +880,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -890,16 +895,18 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -911,13 +918,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1">
@@ -937,10 +944,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -965,10 +972,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1027,7 +1034,7 @@
       <formula>NOT(ISERROR(SEARCH("NOK",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:G1048576 A1:G1 A2:F3 E6:F7 C6:C10 B4:F5 E8:G10 C11:G12">
+  <conditionalFormatting sqref="A13:G1048576 A1:G1 A2:F3 E6:F7 B4:F5 E8:G10 C11:G12 C6:C10">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
